--- a/Unity/Assets/Config/Excel/Datas/Drop/RandomBag.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Drop/RandomBag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -22,12 +22,24 @@
     <t>Id</t>
   </si>
   <si>
+    <t>is_random_one</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>array,ItemRandomBag</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -37,84 +49,66 @@
     <t>备注</t>
   </si>
   <si>
-    <t>随机类型</t>
-  </si>
-  <si>
-    <t>产出#ID#1</t>
-  </si>
-  <si>
-    <t>产出#权重#1</t>
-  </si>
-  <si>
-    <t>产出#随机个数#1</t>
-  </si>
-  <si>
-    <t>产出#ID#2</t>
-  </si>
-  <si>
-    <t>产出#权重#2</t>
-  </si>
-  <si>
-    <t>产出#随机个数#2</t>
-  </si>
-  <si>
-    <t>产出#ID#3</t>
-  </si>
-  <si>
-    <t>产出#权重#3</t>
-  </si>
-  <si>
-    <t>产出#随机个数#3</t>
-  </si>
-  <si>
-    <t>产出#ID#4</t>
-  </si>
-  <si>
-    <t>产出#权重#4</t>
-  </si>
-  <si>
-    <t>产出#随机个数#4</t>
-  </si>
-  <si>
-    <t>产出#ID#5</t>
-  </si>
-  <si>
-    <t>产出#权重#5</t>
-  </si>
-  <si>
-    <t>产出#随机个数#5</t>
-  </si>
-  <si>
-    <t>产出#ID#6</t>
-  </si>
-  <si>
-    <t>产出#权重#6</t>
-  </si>
-  <si>
-    <t>产出#随机个数#6</t>
+    <t>是否单个包</t>
   </si>
   <si>
     <t>种子箱掉落包</t>
   </si>
   <si>
-    <t>唯一随机</t>
+    <t>1,1000,3</t>
+  </si>
+  <si>
+    <t>2,1000,3</t>
+  </si>
+  <si>
+    <t>3,1000,3</t>
+  </si>
+  <si>
+    <t>4,1000,3</t>
+  </si>
+  <si>
+    <t>5,1000,3</t>
+  </si>
+  <si>
+    <t>6,1000,3</t>
   </si>
   <si>
     <t>1级防御塔掉落包</t>
   </si>
   <si>
-    <t>全部随机</t>
+    <t>7,2000,1</t>
+  </si>
+  <si>
+    <t>8,2000,1</t>
   </si>
   <si>
     <t>2级防御塔掉落包</t>
   </si>
   <si>
+    <t>7,3000,1</t>
+  </si>
+  <si>
+    <t>8,3000,1</t>
+  </si>
+  <si>
     <t>3级防御塔掉落包</t>
   </si>
   <si>
+    <t>7,4000,1</t>
+  </si>
+  <si>
+    <t>8,4000,1</t>
+  </si>
+  <si>
     <t>4级防御塔掉落包</t>
   </si>
   <si>
+    <t>7,5000,1</t>
+  </si>
+  <si>
+    <t>8,5000,1</t>
+  </si>
+  <si>
     <t>5级防御塔掉落包</t>
   </si>
   <si>
@@ -136,58 +130,106 @@
     <t>1级普通近战掉落包</t>
   </si>
   <si>
+    <t>9,2000,1</t>
+  </si>
+  <si>
     <t>2级普通近战掉落包</t>
   </si>
   <si>
+    <t>9,3000,1</t>
+  </si>
+  <si>
     <t>3级普通近战掉落包</t>
   </si>
   <si>
+    <t>9,4000,1</t>
+  </si>
+  <si>
     <t>4级普通近战掉落包</t>
   </si>
   <si>
+    <t>9,5000,1</t>
+  </si>
+  <si>
     <t>5级普通近战掉落包</t>
   </si>
   <si>
     <t>1级高级近战兵掉落包</t>
   </si>
   <si>
+    <t>10,2000,1</t>
+  </si>
+  <si>
     <t>2级高级近战兵掉落包</t>
   </si>
   <si>
+    <t>10,3000,1</t>
+  </si>
+  <si>
     <t>3级高级近战兵掉落包</t>
   </si>
   <si>
+    <t>10,4000,1</t>
+  </si>
+  <si>
     <t>4级高级近战兵掉落包</t>
   </si>
   <si>
+    <t>10,5000,1</t>
+  </si>
+  <si>
     <t>5级高级近战兵掉落包</t>
   </si>
   <si>
     <t>1级普通远程营掉落包</t>
   </si>
   <si>
+    <t>11,2000,1</t>
+  </si>
+  <si>
     <t>2级普通远程掉落包</t>
   </si>
   <si>
+    <t>11,3000,1</t>
+  </si>
+  <si>
     <t>3级普通远程掉落包</t>
   </si>
   <si>
+    <t>11,4000,1</t>
+  </si>
+  <si>
     <t>4级普通远程掉落包</t>
   </si>
   <si>
+    <t>11,5000,1</t>
+  </si>
+  <si>
     <t>5级普通远程掉落包</t>
   </si>
   <si>
     <t>1级肉盾掉落包</t>
   </si>
   <si>
+    <t>12,2000,1</t>
+  </si>
+  <si>
     <t>2级肉盾掉落包</t>
   </si>
   <si>
+    <t>12,3000,1</t>
+  </si>
+  <si>
     <t>3级肉盾掉落包</t>
   </si>
   <si>
+    <t>12,4000,1</t>
+  </si>
+  <si>
     <t>4级肉盾掉落包</t>
+  </si>
+  <si>
+    <t>12,5000,1</t>
   </si>
   <si>
     <t>5级肉盾掉落包</t>
@@ -203,13 +245,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -678,160 +726,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,769 +1204,551 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B3"/>
+      <selection activeCell="E5" sqref="E5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="15.7857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7857142857143" style="1" customWidth="1"/>
+    <col min="6" max="10" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>5</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="1">
-        <v>3</v>
-      </c>
-      <c r="T4" s="1">
-        <v>6</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="D17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="1">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="1">
         <v>26</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="1">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="1">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="1">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="1">
         <v>29</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="1">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="1">
         <v>30</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="1">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="C33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="1">
         <v>31</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="1">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
+      <c r="C34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
